--- a/M305.xlsx
+++ b/M305.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dragonnomada/Desktop/banjercito/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EBF36DD-440B-B74F-B09B-5BA0B9FD4331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF2D743-EC07-2443-B959-BB41AB875076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26700" yWindow="-2080" windowWidth="28040" windowHeight="19740" activeTab="1" xr2:uid="{BC20A598-FC02-4240-8684-C14E0DA6136F}"/>
+    <workbookView xWindow="-31960" yWindow="-2080" windowWidth="28040" windowHeight="19700" activeTab="2" xr2:uid="{BC20A598-FC02-4240-8684-C14E0DA6136F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,40 +20,25 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Hoja2!$C$102:$C$151</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Hoja2!$C$2:$C$51</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Hoja2!$D$2:$D$51</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Hoja2!$D$52:$D$101</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Hoja2!$E$151</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Hoja2!$E$1:$E$150</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Hoja2!$F$1:$F$151</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Hoja2!$G$1:$G$151</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Hoja2!$H$1:$H$151</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Hoja2!$I$1:$I$151</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Hoja2!$J$1:$J$151</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Hoja2!$A$1:$E$151</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Hoja3!$A$2:$A$51</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Hoja3!$A$52:$A$101</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Hoja3!$D$5</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Hoja3!$A$2:$A$51</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Hoja3!$A$2:$A$51</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Hoja3!$A$102:$A$151</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Hoja3!$A$2:$A$51</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Hoja3!$A$52:$A$101</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Hoja3!$G$16</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Hoja2!$C$52:$C$101</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Hoja2!$D$102:$D$151</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Hoja2!$D$151</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Hoja2!$D$2:$D$51</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Hoja2!$D$52:$D$101</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Hoja2!$E$151</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Hoja2!$E$1:$E$150</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Hoja2!$F$1:$F$151</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Hoja2!$G$1:$G$151</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Hoja2!$H$1:$H$151</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Hoja2!$I$1:$I$151</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Hoja2!$E$102</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Hoja2!$J$1:$J$151</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Hoja2!$C$151</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Hoja2!$E$151</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Hoja2!$E$1:$E$150</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">Hoja2!$E$2</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">Hoja2!$E$52</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Hoja2!$G$11</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Hoja2!$A$1:$E$151</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Hoja2!$D$102:$D$151</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Hoja2!$D$151</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Hoja2!$D$102:$D$151</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Hoja2!$D$2:$D$51</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Hoja2!$D$52:$D$101</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Hoja3!$A$102:$A$151</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -74,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="30">
   <si>
     <t>Edad</t>
   </si>
@@ -159,14 +144,20 @@
   <si>
     <t>SETOSAS</t>
   </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No hay pruebas suficientes para determinar que la varianza entre las versicolor y las virginicas son distintas, eso significa que no pasó la prueba F y las muestras comparten valores similares un 26.3% de las veces </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="0.0%"/>
-    <numFmt numFmtId="174" formatCode="0.00000000%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.00000000%"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -229,24 +220,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -685,17 +676,17 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.10</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.11</cx:f>
+        <cx:f>_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.8</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -716,6 +707,105 @@
           </cx:layoutPr>
         </cx:series>
         <cx:series layoutId="boxWhisker" uniqueId="{0000000A-78B4-EA49-8EC2-D3E8E1CA4D16}">
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.10</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.11</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.9</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Longitud de Pétalo por Variedad</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+            </a:rPr>
+            <a:t>Longitud de Pétalo por Variedad</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{0864EF1E-CC39-B547-8472-5AE46712072D}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Setosa</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{00000001-96D4-7846-A4AC-7B2A7DD647A3}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Versicolor</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{00000002-96D4-7846-A4AC-7B2A7DD647A3}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Virginica</cx:v>
+            </cx:txData>
+          </cx:tx>
           <cx:dataId val="2"/>
           <cx:layoutPr>
             <cx:statistics quartileMethod="exclusive"/>
@@ -856,6 +946,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1888,6 +2018,521 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2493,7 +3138,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="4165600" y="1854200"/>
-              <a:ext cx="4514850" cy="2959100"/>
+              <a:ext cx="4870450" cy="2959100"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2571,6 +3216,89 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="4222750" y="4991100"/>
+              <a:ext cx="4927600" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-MX" sz="1100"/>
+                <a:t>Este gráfico no está disponible en tu versión de Excel.
+Si editas esta forma o guardas el libro en un formato de archivo diferente, el gráfico no se podrá utilizar.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Gráfico 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD004C64-A893-8C54-A559-2D38E91646DB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1562100" y="139700"/>
               <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2947,13 +3675,13 @@
       <c r="E4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5">
@@ -2962,11 +3690,11 @@
       <c r="C5">
         <v>19000</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6">
@@ -2986,13 +3714,13 @@
       <c r="E7" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8">
@@ -3001,11 +3729,11 @@
       <c r="C8">
         <v>21000</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9">
@@ -3025,20 +3753,20 @@
       <c r="E10" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3055,8 +3783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{156AC550-415B-154E-9476-C514CA3C9B90}">
   <dimension ref="A1:L151"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView zoomScale="200" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3067,94 +3795,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+      <c r="A2" s="2">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="3">
         <v>3.5</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="3">
         <v>1.4</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="3">
         <v>0.2</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+      <c r="A3" s="2">
         <v>4.9000000000000004</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="3">
         <v>3</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="3">
         <v>1.4</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="3">
         <v>0.2</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+      <c r="A4" s="2">
         <v>4.7</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="3">
         <v>3.2</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="3">
         <v>1.3</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="3">
         <v>0.2</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+      <c r="A5" s="2">
         <v>4.5999999999999996</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="3">
         <v>3.1</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="3">
         <v>1.5</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="3">
         <v>0.2</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G5" t="s">
@@ -3168,19 +3896,19 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="3">
         <v>3.6</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="3">
         <v>1.4</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="3">
         <v>0.2</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F6" t="s">
@@ -3200,19 +3928,19 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
+      <c r="A7" s="2">
         <v>5.4</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="3">
         <v>3.9</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="3">
         <v>1.7</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="3">
         <v>0.4</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F7" t="s">
@@ -3232,19 +3960,19 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
+      <c r="A8" s="2">
         <v>4.5999999999999996</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="3">
         <v>3.4</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="3">
         <v>1.4</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="3">
         <v>0.3</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F8" t="s">
@@ -3264,563 +3992,563 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
+      <c r="A9" s="2">
         <v>5</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="3">
         <v>3.4</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="3">
         <v>1.5</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="3">
         <v>0.2</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
+      <c r="A10" s="2">
         <v>4.4000000000000004</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="3">
         <v>2.9</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="3">
         <v>1.4</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="3">
         <v>0.2</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
+      <c r="A11" s="2">
         <v>4.9000000000000004</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="3">
         <v>3.1</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="3">
         <v>1.5</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="3">
         <v>0.1</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
+      <c r="A12" s="2">
         <v>5.4</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="3">
         <v>3.7</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="3">
         <v>1.5</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="3">
         <v>0.2</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
+      <c r="A13" s="2">
         <v>4.8</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="3">
         <v>3.4</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="3">
         <v>1.6</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="3">
         <v>0.2</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
+      <c r="A14" s="2">
         <v>4.8</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="3">
         <v>3</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="3">
         <v>1.4</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="3">
         <v>0.1</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
+      <c r="A15" s="2">
         <v>4.3</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="3">
         <v>3</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="3">
         <v>0.1</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
+      <c r="A16" s="2">
         <v>5.8</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="3">
         <v>4</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="3">
         <v>1.2</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="3">
         <v>0.2</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
+      <c r="A17" s="2">
         <v>5.7</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="3">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="3">
         <v>1.5</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="3">
         <v>0.4</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
+      <c r="A18" s="2">
         <v>5.4</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="3">
         <v>3.9</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="3">
         <v>1.3</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="3">
         <v>0.4</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
+      <c r="A19" s="2">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="3">
         <v>3.5</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="3">
         <v>1.4</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="3">
         <v>0.3</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
+      <c r="A20" s="2">
         <v>5.7</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="3">
         <v>3.8</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="3">
         <v>1.7</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="3">
         <v>0.3</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
+      <c r="A21" s="2">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="3">
         <v>3.8</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="3">
         <v>1.5</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="3">
         <v>0.3</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
+      <c r="A22" s="2">
         <v>5.4</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="3">
         <v>3.4</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="3">
         <v>1.7</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="3">
         <v>0.2</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="5">
+      <c r="A23" s="2">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="3">
         <v>3.7</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="3">
         <v>1.5</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="3">
         <v>0.4</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
+      <c r="A24" s="2">
         <v>4.5999999999999996</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="3">
         <v>3.6</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="3">
         <v>1</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="3">
         <v>0.2</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="5">
+      <c r="A25" s="2">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="3">
         <v>3.3</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="3">
         <v>1.7</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="3">
         <v>0.5</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
+      <c r="A26" s="2">
         <v>4.8</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="3">
         <v>3.4</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="3">
         <v>1.9</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="3">
         <v>0.2</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="5">
+      <c r="A27" s="2">
         <v>5</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="3">
         <v>3</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="3">
         <v>1.6</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="3">
         <v>0.2</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="5">
+      <c r="A28" s="2">
         <v>5</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="3">
         <v>3.4</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="3">
         <v>1.6</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="3">
         <v>0.4</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="5">
+      <c r="A29" s="2">
         <v>5.2</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="3">
         <v>3.5</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="3">
         <v>1.5</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="3">
         <v>0.2</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="5">
+      <c r="A30" s="2">
         <v>5.2</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="3">
         <v>3.4</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="3">
         <v>1.4</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="3">
         <v>0.2</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="5">
+      <c r="A31" s="2">
         <v>4.7</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="3">
         <v>3.2</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="3">
         <v>1.6</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="3">
         <v>0.2</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="5">
+      <c r="A32" s="2">
         <v>4.8</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="3">
         <v>3.1</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="3">
         <v>1.6</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="3">
         <v>0.2</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="5">
+      <c r="A33" s="2">
         <v>5.4</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="3">
         <v>3.4</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="3">
         <v>1.5</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="3">
         <v>0.4</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="5">
+      <c r="A34" s="2">
         <v>5.2</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="3">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="3">
         <v>1.5</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="3">
         <v>0.1</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="5">
+      <c r="A35" s="2">
         <v>5.5</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="3">
         <v>4.2</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="3">
         <v>1.4</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="3">
         <v>0.2</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="5">
+      <c r="A36" s="2">
         <v>4.9000000000000004</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="3">
         <v>3.1</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="3">
         <v>1.5</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="3">
         <v>0.2</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="5">
+      <c r="A37" s="2">
         <v>5</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="3">
         <v>3.2</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="3">
         <v>1.2</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="3">
         <v>0.2</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="5">
+      <c r="A38" s="2">
         <v>5.5</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="3">
         <v>3.5</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="3">
         <v>1.3</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="3">
         <v>0.2</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="5">
+      <c r="A39" s="2">
         <v>4.9000000000000004</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="3">
         <v>3.6</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="3">
         <v>1.4</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="3">
         <v>0.1</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="5">
+      <c r="A40" s="2">
         <v>4.4000000000000004</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="3">
         <v>3</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="3">
         <v>1.3</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="3">
         <v>0.2</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="5">
+      <c r="A41" s="2">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="3">
         <v>3.4</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="3">
         <v>1.5</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="3">
         <v>0.2</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F41" t="s">
@@ -3828,234 +4556,234 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="5">
+      <c r="A42" s="2">
         <v>5</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42" s="3">
         <v>3.5</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="3">
         <v>1.3</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="3">
         <v>0.3</v>
       </c>
-      <c r="E42" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" s="2" t="s">
+      <c r="E42" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G42" s="2"/>
-      <c r="H42" s="8">
+      <c r="G42" s="12"/>
+      <c r="H42" s="5">
         <f>_xlfn.F.TEST(C2:C51,C52:C101)</f>
         <v>1.0257532848395607E-10</v>
       </c>
-      <c r="I42" s="3" t="s">
+      <c r="I42" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" s="5">
+      <c r="A43" s="2">
         <v>4.5</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="3">
         <v>1.3</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="3">
         <v>0.3</v>
       </c>
-      <c r="E43" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
+      <c r="E43" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A44" s="5">
+      <c r="A44" s="2">
         <v>4.4000000000000004</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B44" s="3">
         <v>3.2</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="3">
         <v>1.3</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="3">
         <v>0.2</v>
       </c>
-      <c r="E44" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
+      <c r="E44" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A45" s="5">
+      <c r="A45" s="2">
         <v>5</v>
       </c>
-      <c r="B45" s="6">
+      <c r="B45" s="3">
         <v>3.5</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="3">
         <v>1.6</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="3">
         <v>0.6</v>
       </c>
-      <c r="E45" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" s="2" t="s">
+      <c r="E45" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G45" s="2"/>
-      <c r="H45" s="7">
+      <c r="G45" s="12"/>
+      <c r="H45" s="4">
         <f>_xlfn.F.TEST(C52:C101,C102:C151)</f>
         <v>0.26374544156741042</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" s="5">
+      <c r="A46" s="2">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46" s="3">
         <v>3.8</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="3">
         <v>1.9</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46" s="3">
         <v>0.4</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E46" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47" s="5">
+      <c r="A47" s="2">
         <v>4.8</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B47" s="3">
         <v>3</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="3">
         <v>1.4</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47" s="3">
         <v>0.3</v>
       </c>
-      <c r="E47" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" s="9">
+      <c r="E47" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" s="6">
         <v>0.05</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I47" s="9">
+      <c r="I47" s="6">
         <v>0.95</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48" s="5">
+      <c r="A48" s="2">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B48" s="3">
         <v>3.8</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="3">
         <v>1.6</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48" s="3">
         <v>0.2</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="E48" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F48" t="s">
         <v>27</v>
       </c>
-      <c r="G48" s="10">
+      <c r="G48" s="7">
         <f>H48-2*_xlfn.STDEV.P(C2:C51)</f>
         <v>1.1181628292345422</v>
       </c>
-      <c r="H48" s="10">
+      <c r="H48" s="7">
         <f>AVERAGE(C2:C51)</f>
         <v>1.4620000000000002</v>
       </c>
-      <c r="I48" s="10">
+      <c r="I48" s="7">
         <f>H48+2 * _xlfn.STDEV.P(C2:C51)</f>
         <v>1.8058371707654581</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="5">
+      <c r="A49" s="2">
         <v>4.5999999999999996</v>
       </c>
-      <c r="B49" s="6">
+      <c r="B49" s="3">
         <v>3.2</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="3">
         <v>1.4</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D49" s="3">
         <v>0.2</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="E49" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F49" t="s">
         <v>21</v>
       </c>
-      <c r="G49" s="10">
+      <c r="G49" s="7">
         <f>H49-2*_xlfn.STDEV.P(C52:C101)</f>
         <v>3.3296237320309467</v>
       </c>
-      <c r="H49" s="12">
+      <c r="H49" s="9">
         <f>AVERAGE(C52:C101)</f>
         <v>4.26</v>
       </c>
-      <c r="I49" s="12">
+      <c r="I49" s="9">
         <f>H49+2*_xlfn.STDEV.P(C52:C101)</f>
         <v>5.1903762679690528</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="5">
+      <c r="A50" s="2">
         <v>5.3</v>
       </c>
-      <c r="B50" s="6">
+      <c r="B50" s="3">
         <v>3.7</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50" s="3">
         <v>1.5</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D50" s="3">
         <v>0.2</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="E50" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F50" t="s">
         <v>22</v>
       </c>
-      <c r="G50" s="11">
+      <c r="G50" s="8">
         <f>H50-2*_xlfn.STDEV.P(C102:C151)</f>
         <v>4.4593042509463112</v>
       </c>
-      <c r="H50" s="11">
+      <c r="H50" s="8">
         <f>AVERAGE(C102:C151)</f>
         <v>5.5519999999999996</v>
       </c>
@@ -4065,1722 +4793,1722 @@
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="5">
+      <c r="A51" s="2">
         <v>5</v>
       </c>
-      <c r="B51" s="6">
+      <c r="B51" s="3">
         <v>3.3</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C51" s="3">
         <v>1.4</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D51" s="3">
         <v>0.2</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="E51" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="5">
+      <c r="A52" s="2">
         <v>7</v>
       </c>
-      <c r="B52" s="6">
+      <c r="B52" s="3">
         <v>3.2</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52" s="3">
         <v>4.7</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D52" s="3">
         <v>1.4</v>
       </c>
-      <c r="E52" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I52" s="13">
+      <c r="E52" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I52" s="10">
         <v>0.26300000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="5">
+      <c r="A53" s="2">
         <v>6.4</v>
       </c>
-      <c r="B53" s="6">
+      <c r="B53" s="3">
         <v>3.2</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C53" s="3">
         <v>4.5</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D53" s="3">
         <v>1.5</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="E53" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="5">
+      <c r="A54" s="2">
         <v>6.9</v>
       </c>
-      <c r="B54" s="6">
+      <c r="B54" s="3">
         <v>3.1</v>
       </c>
-      <c r="C54" s="6">
+      <c r="C54" s="3">
         <v>4.9000000000000004</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D54" s="3">
         <v>1.5</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="E54" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="5">
+      <c r="A55" s="2">
         <v>5.5</v>
       </c>
-      <c r="B55" s="6">
+      <c r="B55" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C55" s="6">
+      <c r="C55" s="3">
         <v>4</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D55" s="3">
         <v>1.3</v>
       </c>
-      <c r="E55" s="6" t="s">
+      <c r="E55" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="5">
+      <c r="A56" s="2">
         <v>6.5</v>
       </c>
-      <c r="B56" s="6">
+      <c r="B56" s="3">
         <v>2.8</v>
       </c>
-      <c r="C56" s="6">
+      <c r="C56" s="3">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D56" s="3">
         <v>1.5</v>
       </c>
-      <c r="E56" s="6" t="s">
+      <c r="E56" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="5">
+      <c r="A57" s="2">
         <v>5.7</v>
       </c>
-      <c r="B57" s="6">
+      <c r="B57" s="3">
         <v>2.8</v>
       </c>
-      <c r="C57" s="6">
+      <c r="C57" s="3">
         <v>4.5</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D57" s="3">
         <v>1.3</v>
       </c>
-      <c r="E57" s="6" t="s">
+      <c r="E57" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="5">
+      <c r="A58" s="2">
         <v>6.3</v>
       </c>
-      <c r="B58" s="6">
+      <c r="B58" s="3">
         <v>3.3</v>
       </c>
-      <c r="C58" s="6">
+      <c r="C58" s="3">
         <v>4.7</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D58" s="3">
         <v>1.6</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="E58" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="5">
+      <c r="A59" s="2">
         <v>4.9000000000000004</v>
       </c>
-      <c r="B59" s="6">
+      <c r="B59" s="3">
         <v>2.4</v>
       </c>
-      <c r="C59" s="6">
+      <c r="C59" s="3">
         <v>3.3</v>
       </c>
-      <c r="D59" s="6">
+      <c r="D59" s="3">
         <v>1</v>
       </c>
-      <c r="E59" s="6" t="s">
+      <c r="E59" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="5">
+      <c r="A60" s="2">
         <v>6.6</v>
       </c>
-      <c r="B60" s="6">
+      <c r="B60" s="3">
         <v>2.9</v>
       </c>
-      <c r="C60" s="6">
+      <c r="C60" s="3">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D60" s="3">
         <v>1.3</v>
       </c>
-      <c r="E60" s="6" t="s">
+      <c r="E60" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="5">
+      <c r="A61" s="2">
         <v>5.2</v>
       </c>
-      <c r="B61" s="6">
+      <c r="B61" s="3">
         <v>2.7</v>
       </c>
-      <c r="C61" s="6">
+      <c r="C61" s="3">
         <v>3.9</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D61" s="3">
         <v>1.4</v>
       </c>
-      <c r="E61" s="6" t="s">
+      <c r="E61" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="5">
+      <c r="A62" s="2">
         <v>5</v>
       </c>
-      <c r="B62" s="6">
+      <c r="B62" s="3">
         <v>2</v>
       </c>
-      <c r="C62" s="6">
+      <c r="C62" s="3">
         <v>3.5</v>
       </c>
-      <c r="D62" s="6">
+      <c r="D62" s="3">
         <v>1</v>
       </c>
-      <c r="E62" s="6" t="s">
+      <c r="E62" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="5">
+      <c r="A63" s="2">
         <v>5.9</v>
       </c>
-      <c r="B63" s="6">
+      <c r="B63" s="3">
         <v>3</v>
       </c>
-      <c r="C63" s="6">
+      <c r="C63" s="3">
         <v>4.2</v>
       </c>
-      <c r="D63" s="6">
+      <c r="D63" s="3">
         <v>1.5</v>
       </c>
-      <c r="E63" s="6" t="s">
+      <c r="E63" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="5">
+      <c r="A64" s="2">
         <v>6</v>
       </c>
-      <c r="B64" s="6">
+      <c r="B64" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C64" s="6">
+      <c r="C64" s="3">
         <v>4</v>
       </c>
-      <c r="D64" s="6">
+      <c r="D64" s="3">
         <v>1</v>
       </c>
-      <c r="E64" s="6" t="s">
+      <c r="E64" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="5">
+      <c r="A65" s="2">
         <v>6.1</v>
       </c>
-      <c r="B65" s="6">
+      <c r="B65" s="3">
         <v>2.9</v>
       </c>
-      <c r="C65" s="6">
+      <c r="C65" s="3">
         <v>4.7</v>
       </c>
-      <c r="D65" s="6">
+      <c r="D65" s="3">
         <v>1.4</v>
       </c>
-      <c r="E65" s="6" t="s">
+      <c r="E65" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="5">
+      <c r="A66" s="2">
         <v>5.6</v>
       </c>
-      <c r="B66" s="6">
+      <c r="B66" s="3">
         <v>2.9</v>
       </c>
-      <c r="C66" s="6">
+      <c r="C66" s="3">
         <v>3.6</v>
       </c>
-      <c r="D66" s="6">
+      <c r="D66" s="3">
         <v>1.3</v>
       </c>
-      <c r="E66" s="6" t="s">
+      <c r="E66" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="5">
+      <c r="A67" s="2">
         <v>6.7</v>
       </c>
-      <c r="B67" s="6">
+      <c r="B67" s="3">
         <v>3.1</v>
       </c>
-      <c r="C67" s="6">
+      <c r="C67" s="3">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D67" s="6">
+      <c r="D67" s="3">
         <v>1.4</v>
       </c>
-      <c r="E67" s="6" t="s">
+      <c r="E67" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="5">
+      <c r="A68" s="2">
         <v>5.6</v>
       </c>
-      <c r="B68" s="6">
+      <c r="B68" s="3">
         <v>3</v>
       </c>
-      <c r="C68" s="6">
+      <c r="C68" s="3">
         <v>4.5</v>
       </c>
-      <c r="D68" s="6">
+      <c r="D68" s="3">
         <v>1.5</v>
       </c>
-      <c r="E68" s="6" t="s">
+      <c r="E68" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="5">
+      <c r="A69" s="2">
         <v>5.8</v>
       </c>
-      <c r="B69" s="6">
+      <c r="B69" s="3">
         <v>2.7</v>
       </c>
-      <c r="C69" s="6">
+      <c r="C69" s="3">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D69" s="6">
+      <c r="D69" s="3">
         <v>1</v>
       </c>
-      <c r="E69" s="6" t="s">
+      <c r="E69" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="5">
+      <c r="A70" s="2">
         <v>6.2</v>
       </c>
-      <c r="B70" s="6">
+      <c r="B70" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C70" s="6">
+      <c r="C70" s="3">
         <v>4.5</v>
       </c>
-      <c r="D70" s="6">
+      <c r="D70" s="3">
         <v>1.5</v>
       </c>
-      <c r="E70" s="6" t="s">
+      <c r="E70" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="5">
+      <c r="A71" s="2">
         <v>5.6</v>
       </c>
-      <c r="B71" s="6">
+      <c r="B71" s="3">
         <v>2.5</v>
       </c>
-      <c r="C71" s="6">
+      <c r="C71" s="3">
         <v>3.9</v>
       </c>
-      <c r="D71" s="6">
+      <c r="D71" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E71" s="6" t="s">
+      <c r="E71" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="5">
+      <c r="A72" s="2">
         <v>5.9</v>
       </c>
-      <c r="B72" s="6">
+      <c r="B72" s="3">
         <v>3.2</v>
       </c>
-      <c r="C72" s="6">
+      <c r="C72" s="3">
         <v>4.8</v>
       </c>
-      <c r="D72" s="6">
+      <c r="D72" s="3">
         <v>1.8</v>
       </c>
-      <c r="E72" s="6" t="s">
+      <c r="E72" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" s="5">
+      <c r="A73" s="2">
         <v>6.1</v>
       </c>
-      <c r="B73" s="6">
+      <c r="B73" s="3">
         <v>2.8</v>
       </c>
-      <c r="C73" s="6">
+      <c r="C73" s="3">
         <v>4</v>
       </c>
-      <c r="D73" s="6">
+      <c r="D73" s="3">
         <v>1.3</v>
       </c>
-      <c r="E73" s="6" t="s">
+      <c r="E73" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="5">
+      <c r="A74" s="2">
         <v>6.3</v>
       </c>
-      <c r="B74" s="6">
+      <c r="B74" s="3">
         <v>2.5</v>
       </c>
-      <c r="C74" s="6">
+      <c r="C74" s="3">
         <v>4.9000000000000004</v>
       </c>
-      <c r="D74" s="6">
+      <c r="D74" s="3">
         <v>1.5</v>
       </c>
-      <c r="E74" s="6" t="s">
+      <c r="E74" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="5">
+      <c r="A75" s="2">
         <v>6.1</v>
       </c>
-      <c r="B75" s="6">
+      <c r="B75" s="3">
         <v>2.8</v>
       </c>
-      <c r="C75" s="6">
+      <c r="C75" s="3">
         <v>4.7</v>
       </c>
-      <c r="D75" s="6">
+      <c r="D75" s="3">
         <v>1.2</v>
       </c>
-      <c r="E75" s="6" t="s">
+      <c r="E75" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="5">
+      <c r="A76" s="2">
         <v>6.4</v>
       </c>
-      <c r="B76" s="6">
+      <c r="B76" s="3">
         <v>2.9</v>
       </c>
-      <c r="C76" s="6">
+      <c r="C76" s="3">
         <v>4.3</v>
       </c>
-      <c r="D76" s="6">
+      <c r="D76" s="3">
         <v>1.3</v>
       </c>
-      <c r="E76" s="6" t="s">
+      <c r="E76" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="5">
+      <c r="A77" s="2">
         <v>6.6</v>
       </c>
-      <c r="B77" s="6">
+      <c r="B77" s="3">
         <v>3</v>
       </c>
-      <c r="C77" s="6">
+      <c r="C77" s="3">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D77" s="6">
+      <c r="D77" s="3">
         <v>1.4</v>
       </c>
-      <c r="E77" s="6" t="s">
+      <c r="E77" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="5">
+      <c r="A78" s="2">
         <v>6.8</v>
       </c>
-      <c r="B78" s="6">
+      <c r="B78" s="3">
         <v>2.8</v>
       </c>
-      <c r="C78" s="6">
+      <c r="C78" s="3">
         <v>4.8</v>
       </c>
-      <c r="D78" s="6">
+      <c r="D78" s="3">
         <v>1.4</v>
       </c>
-      <c r="E78" s="6" t="s">
+      <c r="E78" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="5">
+      <c r="A79" s="2">
         <v>6.7</v>
       </c>
-      <c r="B79" s="6">
+      <c r="B79" s="3">
         <v>3</v>
       </c>
-      <c r="C79" s="6">
+      <c r="C79" s="3">
         <v>5</v>
       </c>
-      <c r="D79" s="6">
+      <c r="D79" s="3">
         <v>1.7</v>
       </c>
-      <c r="E79" s="6" t="s">
+      <c r="E79" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="5">
+      <c r="A80" s="2">
         <v>6</v>
       </c>
-      <c r="B80" s="6">
+      <c r="B80" s="3">
         <v>2.9</v>
       </c>
-      <c r="C80" s="6">
+      <c r="C80" s="3">
         <v>4.5</v>
       </c>
-      <c r="D80" s="6">
+      <c r="D80" s="3">
         <v>1.5</v>
       </c>
-      <c r="E80" s="6" t="s">
+      <c r="E80" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" s="5">
+      <c r="A81" s="2">
         <v>5.7</v>
       </c>
-      <c r="B81" s="6">
+      <c r="B81" s="3">
         <v>2.6</v>
       </c>
-      <c r="C81" s="6">
+      <c r="C81" s="3">
         <v>3.5</v>
       </c>
-      <c r="D81" s="6">
+      <c r="D81" s="3">
         <v>1</v>
       </c>
-      <c r="E81" s="6" t="s">
+      <c r="E81" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" s="5">
+      <c r="A82" s="2">
         <v>5.5</v>
       </c>
-      <c r="B82" s="6">
+      <c r="B82" s="3">
         <v>2.4</v>
       </c>
-      <c r="C82" s="6">
+      <c r="C82" s="3">
         <v>3.8</v>
       </c>
-      <c r="D82" s="6">
+      <c r="D82" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E82" s="6" t="s">
+      <c r="E82" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" s="5">
+      <c r="A83" s="2">
         <v>5.5</v>
       </c>
-      <c r="B83" s="6">
+      <c r="B83" s="3">
         <v>2.4</v>
       </c>
-      <c r="C83" s="6">
+      <c r="C83" s="3">
         <v>3.7</v>
       </c>
-      <c r="D83" s="6">
+      <c r="D83" s="3">
         <v>1</v>
       </c>
-      <c r="E83" s="6" t="s">
+      <c r="E83" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="5">
+      <c r="A84" s="2">
         <v>5.8</v>
       </c>
-      <c r="B84" s="6">
+      <c r="B84" s="3">
         <v>2.7</v>
       </c>
-      <c r="C84" s="6">
+      <c r="C84" s="3">
         <v>3.9</v>
       </c>
-      <c r="D84" s="6">
+      <c r="D84" s="3">
         <v>1.2</v>
       </c>
-      <c r="E84" s="6" t="s">
+      <c r="E84" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" s="5">
+      <c r="A85" s="2">
         <v>6</v>
       </c>
-      <c r="B85" s="6">
+      <c r="B85" s="3">
         <v>2.7</v>
       </c>
-      <c r="C85" s="6">
+      <c r="C85" s="3">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D85" s="6">
+      <c r="D85" s="3">
         <v>1.6</v>
       </c>
-      <c r="E85" s="6" t="s">
+      <c r="E85" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" s="5">
+      <c r="A86" s="2">
         <v>5.4</v>
       </c>
-      <c r="B86" s="6">
+      <c r="B86" s="3">
         <v>3</v>
       </c>
-      <c r="C86" s="6">
+      <c r="C86" s="3">
         <v>4.5</v>
       </c>
-      <c r="D86" s="6">
+      <c r="D86" s="3">
         <v>1.5</v>
       </c>
-      <c r="E86" s="6" t="s">
+      <c r="E86" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" s="5">
+      <c r="A87" s="2">
         <v>6</v>
       </c>
-      <c r="B87" s="6">
+      <c r="B87" s="3">
         <v>3.4</v>
       </c>
-      <c r="C87" s="6">
+      <c r="C87" s="3">
         <v>4.5</v>
       </c>
-      <c r="D87" s="6">
+      <c r="D87" s="3">
         <v>1.6</v>
       </c>
-      <c r="E87" s="6" t="s">
+      <c r="E87" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" s="5">
+      <c r="A88" s="2">
         <v>6.7</v>
       </c>
-      <c r="B88" s="6">
+      <c r="B88" s="3">
         <v>3.1</v>
       </c>
-      <c r="C88" s="6">
+      <c r="C88" s="3">
         <v>4.7</v>
       </c>
-      <c r="D88" s="6">
+      <c r="D88" s="3">
         <v>1.5</v>
       </c>
-      <c r="E88" s="6" t="s">
+      <c r="E88" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" s="5">
+      <c r="A89" s="2">
         <v>6.3</v>
       </c>
-      <c r="B89" s="6">
+      <c r="B89" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C89" s="6">
+      <c r="C89" s="3">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D89" s="6">
+      <c r="D89" s="3">
         <v>1.3</v>
       </c>
-      <c r="E89" s="6" t="s">
+      <c r="E89" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" s="5">
+      <c r="A90" s="2">
         <v>5.6</v>
       </c>
-      <c r="B90" s="6">
+      <c r="B90" s="3">
         <v>3</v>
       </c>
-      <c r="C90" s="6">
+      <c r="C90" s="3">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D90" s="6">
+      <c r="D90" s="3">
         <v>1.3</v>
       </c>
-      <c r="E90" s="6" t="s">
+      <c r="E90" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" s="5">
+      <c r="A91" s="2">
         <v>5.5</v>
       </c>
-      <c r="B91" s="6">
+      <c r="B91" s="3">
         <v>2.5</v>
       </c>
-      <c r="C91" s="6">
+      <c r="C91" s="3">
         <v>4</v>
       </c>
-      <c r="D91" s="6">
+      <c r="D91" s="3">
         <v>1.3</v>
       </c>
-      <c r="E91" s="6" t="s">
+      <c r="E91" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" s="5">
+      <c r="A92" s="2">
         <v>5.5</v>
       </c>
-      <c r="B92" s="6">
+      <c r="B92" s="3">
         <v>2.6</v>
       </c>
-      <c r="C92" s="6">
+      <c r="C92" s="3">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D92" s="6">
+      <c r="D92" s="3">
         <v>1.2</v>
       </c>
-      <c r="E92" s="6" t="s">
+      <c r="E92" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="5">
+      <c r="A93" s="2">
         <v>6.1</v>
       </c>
-      <c r="B93" s="6">
+      <c r="B93" s="3">
         <v>3</v>
       </c>
-      <c r="C93" s="6">
+      <c r="C93" s="3">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D93" s="6">
+      <c r="D93" s="3">
         <v>1.4</v>
       </c>
-      <c r="E93" s="6" t="s">
+      <c r="E93" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" s="5">
+      <c r="A94" s="2">
         <v>5.8</v>
       </c>
-      <c r="B94" s="6">
+      <c r="B94" s="3">
         <v>2.6</v>
       </c>
-      <c r="C94" s="6">
+      <c r="C94" s="3">
         <v>4</v>
       </c>
-      <c r="D94" s="6">
+      <c r="D94" s="3">
         <v>1.2</v>
       </c>
-      <c r="E94" s="6" t="s">
+      <c r="E94" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" s="5">
+      <c r="A95" s="2">
         <v>5</v>
       </c>
-      <c r="B95" s="6">
+      <c r="B95" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C95" s="6">
+      <c r="C95" s="3">
         <v>3.3</v>
       </c>
-      <c r="D95" s="6">
+      <c r="D95" s="3">
         <v>1</v>
       </c>
-      <c r="E95" s="6" t="s">
+      <c r="E95" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" s="5">
+      <c r="A96" s="2">
         <v>5.6</v>
       </c>
-      <c r="B96" s="6">
+      <c r="B96" s="3">
         <v>2.7</v>
       </c>
-      <c r="C96" s="6">
+      <c r="C96" s="3">
         <v>4.2</v>
       </c>
-      <c r="D96" s="6">
+      <c r="D96" s="3">
         <v>1.3</v>
       </c>
-      <c r="E96" s="6" t="s">
+      <c r="E96" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" s="5">
+      <c r="A97" s="2">
         <v>5.7</v>
       </c>
-      <c r="B97" s="6">
+      <c r="B97" s="3">
         <v>3</v>
       </c>
-      <c r="C97" s="6">
+      <c r="C97" s="3">
         <v>4.2</v>
       </c>
-      <c r="D97" s="6">
+      <c r="D97" s="3">
         <v>1.2</v>
       </c>
-      <c r="E97" s="6" t="s">
+      <c r="E97" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" s="5">
+      <c r="A98" s="2">
         <v>5.7</v>
       </c>
-      <c r="B98" s="6">
+      <c r="B98" s="3">
         <v>2.9</v>
       </c>
-      <c r="C98" s="6">
+      <c r="C98" s="3">
         <v>4.2</v>
       </c>
-      <c r="D98" s="6">
+      <c r="D98" s="3">
         <v>1.3</v>
       </c>
-      <c r="E98" s="6" t="s">
+      <c r="E98" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99" s="5">
+      <c r="A99" s="2">
         <v>6.2</v>
       </c>
-      <c r="B99" s="6">
+      <c r="B99" s="3">
         <v>2.9</v>
       </c>
-      <c r="C99" s="6">
+      <c r="C99" s="3">
         <v>4.3</v>
       </c>
-      <c r="D99" s="6">
+      <c r="D99" s="3">
         <v>1.3</v>
       </c>
-      <c r="E99" s="6" t="s">
+      <c r="E99" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A100" s="5">
+      <c r="A100" s="2">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B100" s="6">
+      <c r="B100" s="3">
         <v>2.5</v>
       </c>
-      <c r="C100" s="6">
+      <c r="C100" s="3">
         <v>3</v>
       </c>
-      <c r="D100" s="6">
+      <c r="D100" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E100" s="6" t="s">
+      <c r="E100" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101" s="5">
+      <c r="A101" s="2">
         <v>5.7</v>
       </c>
-      <c r="B101" s="6">
+      <c r="B101" s="3">
         <v>2.8</v>
       </c>
-      <c r="C101" s="6">
+      <c r="C101" s="3">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D101" s="6">
+      <c r="D101" s="3">
         <v>1.3</v>
       </c>
-      <c r="E101" s="6" t="s">
+      <c r="E101" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102" s="5">
+      <c r="A102" s="2">
         <v>6.3</v>
       </c>
-      <c r="B102" s="6">
+      <c r="B102" s="3">
         <v>3.3</v>
       </c>
-      <c r="C102" s="6">
+      <c r="C102" s="3">
         <v>6</v>
       </c>
-      <c r="D102" s="6">
+      <c r="D102" s="3">
         <v>2.5</v>
       </c>
-      <c r="E102" s="6" t="s">
+      <c r="E102" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103" s="5">
+      <c r="A103" s="2">
         <v>5.8</v>
       </c>
-      <c r="B103" s="6">
+      <c r="B103" s="3">
         <v>2.7</v>
       </c>
-      <c r="C103" s="6">
+      <c r="C103" s="3">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D103" s="6">
+      <c r="D103" s="3">
         <v>1.9</v>
       </c>
-      <c r="E103" s="6" t="s">
+      <c r="E103" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A104" s="5">
+      <c r="A104" s="2">
         <v>7.1</v>
       </c>
-      <c r="B104" s="6">
+      <c r="B104" s="3">
         <v>3</v>
       </c>
-      <c r="C104" s="6">
+      <c r="C104" s="3">
         <v>5.9</v>
       </c>
-      <c r="D104" s="6">
+      <c r="D104" s="3">
         <v>2.1</v>
       </c>
-      <c r="E104" s="6" t="s">
+      <c r="E104" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A105" s="5">
+      <c r="A105" s="2">
         <v>6.3</v>
       </c>
-      <c r="B105" s="6">
+      <c r="B105" s="3">
         <v>2.9</v>
       </c>
-      <c r="C105" s="6">
+      <c r="C105" s="3">
         <v>5.6</v>
       </c>
-      <c r="D105" s="6">
+      <c r="D105" s="3">
         <v>1.8</v>
       </c>
-      <c r="E105" s="6" t="s">
+      <c r="E105" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A106" s="5">
+      <c r="A106" s="2">
         <v>6.5</v>
       </c>
-      <c r="B106" s="6">
+      <c r="B106" s="3">
         <v>3</v>
       </c>
-      <c r="C106" s="6">
+      <c r="C106" s="3">
         <v>5.8</v>
       </c>
-      <c r="D106" s="6">
+      <c r="D106" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E106" s="6" t="s">
+      <c r="E106" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A107" s="5">
+      <c r="A107" s="2">
         <v>7.6</v>
       </c>
-      <c r="B107" s="6">
+      <c r="B107" s="3">
         <v>3</v>
       </c>
-      <c r="C107" s="6">
+      <c r="C107" s="3">
         <v>6.6</v>
       </c>
-      <c r="D107" s="6">
+      <c r="D107" s="3">
         <v>2.1</v>
       </c>
-      <c r="E107" s="6" t="s">
+      <c r="E107" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A108" s="5">
+      <c r="A108" s="2">
         <v>4.9000000000000004</v>
       </c>
-      <c r="B108" s="6">
+      <c r="B108" s="3">
         <v>2.5</v>
       </c>
-      <c r="C108" s="6">
+      <c r="C108" s="3">
         <v>4.5</v>
       </c>
-      <c r="D108" s="6">
+      <c r="D108" s="3">
         <v>1.7</v>
       </c>
-      <c r="E108" s="6" t="s">
+      <c r="E108" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A109" s="5">
+      <c r="A109" s="2">
         <v>7.3</v>
       </c>
-      <c r="B109" s="6">
+      <c r="B109" s="3">
         <v>2.9</v>
       </c>
-      <c r="C109" s="6">
+      <c r="C109" s="3">
         <v>6.3</v>
       </c>
-      <c r="D109" s="6">
+      <c r="D109" s="3">
         <v>1.8</v>
       </c>
-      <c r="E109" s="6" t="s">
+      <c r="E109" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A110" s="5">
+      <c r="A110" s="2">
         <v>6.7</v>
       </c>
-      <c r="B110" s="6">
+      <c r="B110" s="3">
         <v>2.5</v>
       </c>
-      <c r="C110" s="6">
+      <c r="C110" s="3">
         <v>5.8</v>
       </c>
-      <c r="D110" s="6">
+      <c r="D110" s="3">
         <v>1.8</v>
       </c>
-      <c r="E110" s="6" t="s">
+      <c r="E110" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A111" s="5">
+      <c r="A111" s="2">
         <v>7.2</v>
       </c>
-      <c r="B111" s="6">
+      <c r="B111" s="3">
         <v>3.6</v>
       </c>
-      <c r="C111" s="6">
+      <c r="C111" s="3">
         <v>6.1</v>
       </c>
-      <c r="D111" s="6">
+      <c r="D111" s="3">
         <v>2.5</v>
       </c>
-      <c r="E111" s="6" t="s">
+      <c r="E111" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A112" s="5">
+      <c r="A112" s="2">
         <v>6.5</v>
       </c>
-      <c r="B112" s="6">
+      <c r="B112" s="3">
         <v>3.2</v>
       </c>
-      <c r="C112" s="6">
+      <c r="C112" s="3">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D112" s="6">
+      <c r="D112" s="3">
         <v>2</v>
       </c>
-      <c r="E112" s="6" t="s">
+      <c r="E112" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A113" s="5">
+      <c r="A113" s="2">
         <v>6.4</v>
       </c>
-      <c r="B113" s="6">
+      <c r="B113" s="3">
         <v>2.7</v>
       </c>
-      <c r="C113" s="6">
+      <c r="C113" s="3">
         <v>5.3</v>
       </c>
-      <c r="D113" s="6">
+      <c r="D113" s="3">
         <v>1.9</v>
       </c>
-      <c r="E113" s="6" t="s">
+      <c r="E113" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A114" s="5">
+      <c r="A114" s="2">
         <v>6.8</v>
       </c>
-      <c r="B114" s="6">
+      <c r="B114" s="3">
         <v>3</v>
       </c>
-      <c r="C114" s="6">
+      <c r="C114" s="3">
         <v>5.5</v>
       </c>
-      <c r="D114" s="6">
+      <c r="D114" s="3">
         <v>2.1</v>
       </c>
-      <c r="E114" s="6" t="s">
+      <c r="E114" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A115" s="5">
+      <c r="A115" s="2">
         <v>5.7</v>
       </c>
-      <c r="B115" s="6">
+      <c r="B115" s="3">
         <v>2.5</v>
       </c>
-      <c r="C115" s="6">
+      <c r="C115" s="3">
         <v>5</v>
       </c>
-      <c r="D115" s="6">
+      <c r="D115" s="3">
         <v>2</v>
       </c>
-      <c r="E115" s="6" t="s">
+      <c r="E115" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A116" s="5">
+      <c r="A116" s="2">
         <v>5.8</v>
       </c>
-      <c r="B116" s="6">
+      <c r="B116" s="3">
         <v>2.8</v>
       </c>
-      <c r="C116" s="6">
+      <c r="C116" s="3">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D116" s="6">
+      <c r="D116" s="3">
         <v>2.4</v>
       </c>
-      <c r="E116" s="6" t="s">
+      <c r="E116" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A117" s="5">
+      <c r="A117" s="2">
         <v>6.4</v>
       </c>
-      <c r="B117" s="6">
+      <c r="B117" s="3">
         <v>3.2</v>
       </c>
-      <c r="C117" s="6">
+      <c r="C117" s="3">
         <v>5.3</v>
       </c>
-      <c r="D117" s="6">
+      <c r="D117" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E117" s="6" t="s">
+      <c r="E117" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A118" s="5">
+      <c r="A118" s="2">
         <v>6.5</v>
       </c>
-      <c r="B118" s="6">
+      <c r="B118" s="3">
         <v>3</v>
       </c>
-      <c r="C118" s="6">
+      <c r="C118" s="3">
         <v>5.5</v>
       </c>
-      <c r="D118" s="6">
+      <c r="D118" s="3">
         <v>1.8</v>
       </c>
-      <c r="E118" s="6" t="s">
+      <c r="E118" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A119" s="5">
+      <c r="A119" s="2">
         <v>7.7</v>
       </c>
-      <c r="B119" s="6">
+      <c r="B119" s="3">
         <v>3.8</v>
       </c>
-      <c r="C119" s="6">
+      <c r="C119" s="3">
         <v>6.7</v>
       </c>
-      <c r="D119" s="6">
+      <c r="D119" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E119" s="6" t="s">
+      <c r="E119" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A120" s="5">
+      <c r="A120" s="2">
         <v>7.7</v>
       </c>
-      <c r="B120" s="6">
+      <c r="B120" s="3">
         <v>2.6</v>
       </c>
-      <c r="C120" s="6">
+      <c r="C120" s="3">
         <v>6.9</v>
       </c>
-      <c r="D120" s="6">
+      <c r="D120" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E120" s="6" t="s">
+      <c r="E120" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A121" s="5">
+      <c r="A121" s="2">
         <v>6</v>
       </c>
-      <c r="B121" s="6">
+      <c r="B121" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C121" s="6">
+      <c r="C121" s="3">
         <v>5</v>
       </c>
-      <c r="D121" s="6">
+      <c r="D121" s="3">
         <v>1.5</v>
       </c>
-      <c r="E121" s="6" t="s">
+      <c r="E121" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A122" s="5">
+      <c r="A122" s="2">
         <v>6.9</v>
       </c>
-      <c r="B122" s="6">
+      <c r="B122" s="3">
         <v>3.2</v>
       </c>
-      <c r="C122" s="6">
+      <c r="C122" s="3">
         <v>5.7</v>
       </c>
-      <c r="D122" s="6">
+      <c r="D122" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E122" s="6" t="s">
+      <c r="E122" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A123" s="5">
+      <c r="A123" s="2">
         <v>5.6</v>
       </c>
-      <c r="B123" s="6">
+      <c r="B123" s="3">
         <v>2.8</v>
       </c>
-      <c r="C123" s="6">
+      <c r="C123" s="3">
         <v>4.9000000000000004</v>
       </c>
-      <c r="D123" s="6">
+      <c r="D123" s="3">
         <v>2</v>
       </c>
-      <c r="E123" s="6" t="s">
+      <c r="E123" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A124" s="5">
+      <c r="A124" s="2">
         <v>7.7</v>
       </c>
-      <c r="B124" s="6">
+      <c r="B124" s="3">
         <v>2.8</v>
       </c>
-      <c r="C124" s="6">
+      <c r="C124" s="3">
         <v>6.7</v>
       </c>
-      <c r="D124" s="6">
+      <c r="D124" s="3">
         <v>2</v>
       </c>
-      <c r="E124" s="6" t="s">
+      <c r="E124" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A125" s="5">
+      <c r="A125" s="2">
         <v>6.3</v>
       </c>
-      <c r="B125" s="6">
+      <c r="B125" s="3">
         <v>2.7</v>
       </c>
-      <c r="C125" s="6">
+      <c r="C125" s="3">
         <v>4.9000000000000004</v>
       </c>
-      <c r="D125" s="6">
+      <c r="D125" s="3">
         <v>1.8</v>
       </c>
-      <c r="E125" s="6" t="s">
+      <c r="E125" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A126" s="5">
+      <c r="A126" s="2">
         <v>6.7</v>
       </c>
-      <c r="B126" s="6">
+      <c r="B126" s="3">
         <v>3.3</v>
       </c>
-      <c r="C126" s="6">
+      <c r="C126" s="3">
         <v>5.7</v>
       </c>
-      <c r="D126" s="6">
+      <c r="D126" s="3">
         <v>2.1</v>
       </c>
-      <c r="E126" s="6" t="s">
+      <c r="E126" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A127" s="5">
+      <c r="A127" s="2">
         <v>7.2</v>
       </c>
-      <c r="B127" s="6">
+      <c r="B127" s="3">
         <v>3.2</v>
       </c>
-      <c r="C127" s="6">
+      <c r="C127" s="3">
         <v>6</v>
       </c>
-      <c r="D127" s="6">
+      <c r="D127" s="3">
         <v>1.8</v>
       </c>
-      <c r="E127" s="6" t="s">
+      <c r="E127" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A128" s="5">
+      <c r="A128" s="2">
         <v>6.2</v>
       </c>
-      <c r="B128" s="6">
+      <c r="B128" s="3">
         <v>2.8</v>
       </c>
-      <c r="C128" s="6">
+      <c r="C128" s="3">
         <v>4.8</v>
       </c>
-      <c r="D128" s="6">
+      <c r="D128" s="3">
         <v>1.8</v>
       </c>
-      <c r="E128" s="6" t="s">
+      <c r="E128" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A129" s="5">
+      <c r="A129" s="2">
         <v>6.1</v>
       </c>
-      <c r="B129" s="6">
+      <c r="B129" s="3">
         <v>3</v>
       </c>
-      <c r="C129" s="6">
+      <c r="C129" s="3">
         <v>4.9000000000000004</v>
       </c>
-      <c r="D129" s="6">
+      <c r="D129" s="3">
         <v>1.8</v>
       </c>
-      <c r="E129" s="6" t="s">
+      <c r="E129" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A130" s="5">
+      <c r="A130" s="2">
         <v>6.4</v>
       </c>
-      <c r="B130" s="6">
+      <c r="B130" s="3">
         <v>2.8</v>
       </c>
-      <c r="C130" s="6">
+      <c r="C130" s="3">
         <v>5.6</v>
       </c>
-      <c r="D130" s="6">
+      <c r="D130" s="3">
         <v>2.1</v>
       </c>
-      <c r="E130" s="6" t="s">
+      <c r="E130" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A131" s="5">
+      <c r="A131" s="2">
         <v>7.2</v>
       </c>
-      <c r="B131" s="6">
+      <c r="B131" s="3">
         <v>3</v>
       </c>
-      <c r="C131" s="6">
+      <c r="C131" s="3">
         <v>5.8</v>
       </c>
-      <c r="D131" s="6">
+      <c r="D131" s="3">
         <v>1.6</v>
       </c>
-      <c r="E131" s="6" t="s">
+      <c r="E131" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A132" s="5">
+      <c r="A132" s="2">
         <v>7.4</v>
       </c>
-      <c r="B132" s="6">
+      <c r="B132" s="3">
         <v>2.8</v>
       </c>
-      <c r="C132" s="6">
+      <c r="C132" s="3">
         <v>6.1</v>
       </c>
-      <c r="D132" s="6">
+      <c r="D132" s="3">
         <v>1.9</v>
       </c>
-      <c r="E132" s="6" t="s">
+      <c r="E132" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A133" s="5">
+      <c r="A133" s="2">
         <v>7.9</v>
       </c>
-      <c r="B133" s="6">
+      <c r="B133" s="3">
         <v>3.8</v>
       </c>
-      <c r="C133" s="6">
+      <c r="C133" s="3">
         <v>6.4</v>
       </c>
-      <c r="D133" s="6">
+      <c r="D133" s="3">
         <v>2</v>
       </c>
-      <c r="E133" s="6" t="s">
+      <c r="E133" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A134" s="5">
+      <c r="A134" s="2">
         <v>6.4</v>
       </c>
-      <c r="B134" s="6">
+      <c r="B134" s="3">
         <v>2.8</v>
       </c>
-      <c r="C134" s="6">
+      <c r="C134" s="3">
         <v>5.6</v>
       </c>
-      <c r="D134" s="6">
+      <c r="D134" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E134" s="6" t="s">
+      <c r="E134" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A135" s="5">
+      <c r="A135" s="2">
         <v>6.3</v>
       </c>
-      <c r="B135" s="6">
+      <c r="B135" s="3">
         <v>2.8</v>
       </c>
-      <c r="C135" s="6">
+      <c r="C135" s="3">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D135" s="6">
+      <c r="D135" s="3">
         <v>1.5</v>
       </c>
-      <c r="E135" s="6" t="s">
+      <c r="E135" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A136" s="5">
+      <c r="A136" s="2">
         <v>6.1</v>
       </c>
-      <c r="B136" s="6">
+      <c r="B136" s="3">
         <v>2.6</v>
       </c>
-      <c r="C136" s="6">
+      <c r="C136" s="3">
         <v>5.6</v>
       </c>
-      <c r="D136" s="6">
+      <c r="D136" s="3">
         <v>1.4</v>
       </c>
-      <c r="E136" s="6" t="s">
+      <c r="E136" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A137" s="5">
+      <c r="A137" s="2">
         <v>7.7</v>
       </c>
-      <c r="B137" s="6">
+      <c r="B137" s="3">
         <v>3</v>
       </c>
-      <c r="C137" s="6">
+      <c r="C137" s="3">
         <v>6.1</v>
       </c>
-      <c r="D137" s="6">
+      <c r="D137" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E137" s="6" t="s">
+      <c r="E137" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A138" s="5">
+      <c r="A138" s="2">
         <v>6.3</v>
       </c>
-      <c r="B138" s="6">
+      <c r="B138" s="3">
         <v>3.4</v>
       </c>
-      <c r="C138" s="6">
+      <c r="C138" s="3">
         <v>5.6</v>
       </c>
-      <c r="D138" s="6">
+      <c r="D138" s="3">
         <v>2.4</v>
       </c>
-      <c r="E138" s="6" t="s">
+      <c r="E138" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A139" s="5">
+      <c r="A139" s="2">
         <v>6.4</v>
       </c>
-      <c r="B139" s="6">
+      <c r="B139" s="3">
         <v>3.1</v>
       </c>
-      <c r="C139" s="6">
+      <c r="C139" s="3">
         <v>5.5</v>
       </c>
-      <c r="D139" s="6">
+      <c r="D139" s="3">
         <v>1.8</v>
       </c>
-      <c r="E139" s="6" t="s">
+      <c r="E139" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A140" s="5">
+      <c r="A140" s="2">
         <v>6</v>
       </c>
-      <c r="B140" s="6">
+      <c r="B140" s="3">
         <v>3</v>
       </c>
-      <c r="C140" s="6">
+      <c r="C140" s="3">
         <v>4.8</v>
       </c>
-      <c r="D140" s="6">
+      <c r="D140" s="3">
         <v>1.8</v>
       </c>
-      <c r="E140" s="6" t="s">
+      <c r="E140" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A141" s="5">
+      <c r="A141" s="2">
         <v>6.9</v>
       </c>
-      <c r="B141" s="6">
+      <c r="B141" s="3">
         <v>3.1</v>
       </c>
-      <c r="C141" s="6">
+      <c r="C141" s="3">
         <v>5.4</v>
       </c>
-      <c r="D141" s="6">
+      <c r="D141" s="3">
         <v>2.1</v>
       </c>
-      <c r="E141" s="6" t="s">
+      <c r="E141" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A142" s="5">
+      <c r="A142" s="2">
         <v>6.7</v>
       </c>
-      <c r="B142" s="6">
+      <c r="B142" s="3">
         <v>3.1</v>
       </c>
-      <c r="C142" s="6">
+      <c r="C142" s="3">
         <v>5.6</v>
       </c>
-      <c r="D142" s="6">
+      <c r="D142" s="3">
         <v>2.4</v>
       </c>
-      <c r="E142" s="6" t="s">
+      <c r="E142" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A143" s="5">
+      <c r="A143" s="2">
         <v>6.9</v>
       </c>
-      <c r="B143" s="6">
+      <c r="B143" s="3">
         <v>3.1</v>
       </c>
-      <c r="C143" s="6">
+      <c r="C143" s="3">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D143" s="6">
+      <c r="D143" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E143" s="6" t="s">
+      <c r="E143" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A144" s="5">
+      <c r="A144" s="2">
         <v>5.8</v>
       </c>
-      <c r="B144" s="6">
+      <c r="B144" s="3">
         <v>2.7</v>
       </c>
-      <c r="C144" s="6">
+      <c r="C144" s="3">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D144" s="6">
+      <c r="D144" s="3">
         <v>1.9</v>
       </c>
-      <c r="E144" s="6" t="s">
+      <c r="E144" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A145" s="5">
+      <c r="A145" s="2">
         <v>6.8</v>
       </c>
-      <c r="B145" s="6">
+      <c r="B145" s="3">
         <v>3.2</v>
       </c>
-      <c r="C145" s="6">
+      <c r="C145" s="3">
         <v>5.9</v>
       </c>
-      <c r="D145" s="6">
+      <c r="D145" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E145" s="6" t="s">
+      <c r="E145" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A146" s="5">
+      <c r="A146" s="2">
         <v>6.7</v>
       </c>
-      <c r="B146" s="6">
+      <c r="B146" s="3">
         <v>3.3</v>
       </c>
-      <c r="C146" s="6">
+      <c r="C146" s="3">
         <v>5.7</v>
       </c>
-      <c r="D146" s="6">
+      <c r="D146" s="3">
         <v>2.5</v>
       </c>
-      <c r="E146" s="6" t="s">
+      <c r="E146" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A147" s="5">
+      <c r="A147" s="2">
         <v>6.7</v>
       </c>
-      <c r="B147" s="6">
+      <c r="B147" s="3">
         <v>3</v>
       </c>
-      <c r="C147" s="6">
+      <c r="C147" s="3">
         <v>5.2</v>
       </c>
-      <c r="D147" s="6">
+      <c r="D147" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E147" s="6" t="s">
+      <c r="E147" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A148" s="5">
+      <c r="A148" s="2">
         <v>6.3</v>
       </c>
-      <c r="B148" s="6">
+      <c r="B148" s="3">
         <v>2.5</v>
       </c>
-      <c r="C148" s="6">
+      <c r="C148" s="3">
         <v>5</v>
       </c>
-      <c r="D148" s="6">
+      <c r="D148" s="3">
         <v>1.9</v>
       </c>
-      <c r="E148" s="6" t="s">
+      <c r="E148" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A149" s="5">
+      <c r="A149" s="2">
         <v>6.5</v>
       </c>
-      <c r="B149" s="6">
+      <c r="B149" s="3">
         <v>3</v>
       </c>
-      <c r="C149" s="6">
+      <c r="C149" s="3">
         <v>5.2</v>
       </c>
-      <c r="D149" s="6">
+      <c r="D149" s="3">
         <v>2</v>
       </c>
-      <c r="E149" s="6" t="s">
+      <c r="E149" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A150" s="5">
+      <c r="A150" s="2">
         <v>6.2</v>
       </c>
-      <c r="B150" s="6">
+      <c r="B150" s="3">
         <v>3.4</v>
       </c>
-      <c r="C150" s="6">
+      <c r="C150" s="3">
         <v>5.4</v>
       </c>
-      <c r="D150" s="6">
+      <c r="D150" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E150" s="6" t="s">
+      <c r="E150" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A151" s="5">
+      <c r="A151" s="2">
         <v>5.9</v>
       </c>
-      <c r="B151" s="6">
+      <c r="B151" s="3">
         <v>3</v>
       </c>
-      <c r="C151" s="6">
+      <c r="C151" s="3">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D151" s="6">
+      <c r="D151" s="3">
         <v>1.8</v>
       </c>
-      <c r="E151" s="6" t="s">
+      <c r="E151" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -5798,12 +6526,1350 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E84C5DFB-3770-7740-AF32-9A221ADB6C05}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F151"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="200" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="6" width="12.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18">
+        <f>CORREL(A2:A51,A52:A101)</f>
+        <v>-0.19156109378597508</v>
+      </c>
+      <c r="F18">
+        <f>CORREL(A2:A51,A102:A151)</f>
+        <v>0.10195113160542442</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19">
+        <f>CORREL(A52:A101,A2:A51)</f>
+        <v>-0.19156109378597508</v>
+      </c>
+      <c r="E19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19">
+        <f>CORREL(A52:A101,A102:A151)</f>
+        <v>-8.7820580638917664E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20">
+        <f>CORREL(A102:A151,A2:A51)</f>
+        <v>0.10195113160542442</v>
+      </c>
+      <c r="E20">
+        <f>CORREL(A102:A151,A52:A101)</f>
+        <v>-8.7820580638917664E-2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23">
+        <f>_xlfn.F.TEST(A2:A51,A52:A101)</f>
+        <v>1.0257532848395607E-10</v>
+      </c>
+      <c r="F23">
+        <f>_xlfn.F.TEST(A2:A51,A102:A151)</f>
+        <v>1.8747360276272818E-13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>1</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24">
+        <f>_xlfn.F.TEST(A52:A101,A2:A51)</f>
+        <v>1.0257532848395607E-10</v>
+      </c>
+      <c r="E24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="8">
+        <f>_xlfn.F.TEST(A52:A101,A102:A151)</f>
+        <v>0.26374544156741042</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25">
+        <f>_xlfn.F.TEST(A2:A51,A102:A151)</f>
+        <v>1.8747360276272818E-13</v>
+      </c>
+      <c r="E25" s="8">
+        <f>_xlfn.F.TEST(A102:A151,A52:A101)</f>
+        <v>0.26374544156741042</v>
+      </c>
+      <c r="F25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <v>4</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="3">
+        <v>4</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="3">
+        <v>4</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="3">
+        <v>5</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="3">
+        <v>4</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="3">
+        <v>4</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="3">
+        <v>3</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="3">
+        <v>6</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="3">
+        <v>5.9</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="3">
+        <v>6.3</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="3">
+        <v>6.1</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" s="3">
+        <v>5.3</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" s="3">
+        <v>5</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" s="3">
+        <v>5.3</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" s="3">
+        <v>6.7</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" s="3">
+        <v>6.9</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" s="3">
+        <v>5</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" s="3">
+        <v>5.7</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" s="3">
+        <v>6.7</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" s="3">
+        <v>5.7</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" s="3">
+        <v>6</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" s="3">
+        <v>6.1</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" s="3">
+        <v>6.4</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" s="3">
+        <v>6.1</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" s="3">
+        <v>5.9</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" s="3">
+        <v>5.7</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" s="3">
+        <v>5</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D27:F31"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>